--- a/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
+++ b/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Crash_Base" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
     <t>6652</t>
   </si>
   <si>
-    <t>1,5,10,50,100,300,500,750,1000,2000</t>
-  </si>
-  <si>
-    <t>25,20,20,15,10,5,3,2,0,0</t>
+    <t>20000,50000,100000,200000,500000,1000000,2000000,5000000,10000000,20000000</t>
+  </si>
+  <si>
+    <t>20,20,20,10,10,10,5,3,2,0</t>
   </si>
   <si>
     <t>110,150,200,300,400,500,1000,3000,5000</t>
@@ -237,7 +237,7 @@
     </r>
   </si>
   <si>
-    <t>30,0</t>
+    <t>29,0</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -409,12 +416,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -737,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,34 +756,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,94 +792,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,13 +899,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1254,20 +1261,21 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.75" style="2" customWidth="1"/>
     <col min="5" max="7" width="14.125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
+    <col min="8" max="8" width="9.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
@@ -1385,7 +1393,7 @@
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1401,7 +1409,7 @@
         <v>60120</v>
       </c>
       <c r="H4" s="2">
-        <v>10000</v>
+        <v>50000000</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>

--- a/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
+++ b/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Crash_Base" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,12 +409,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -744,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,33 +749,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,97 +788,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,13 +892,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1261,10 +1254,10 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1412,7 +1405,7 @@
         <v>50000000</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
         <v>5</v>

--- a/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
+++ b/config/xlsx/Common/CrashBase小飞机基础配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Crash_Base" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,10 @@
     <t>6652</t>
   </si>
   <si>
-    <t>20000,50000,100000,200000,500000,1000000,2000000,5000000,10000000,20000000</t>
-  </si>
-  <si>
-    <t>20,20,20,10,10,10,5,3,2,0</t>
+    <t>100000,200000,500000,1000000,2000000,5000000,10000000,20000000</t>
+  </si>
+  <si>
+    <t>20,20,20,15,12,7,4,2</t>
   </si>
   <si>
     <t>110,150,200,300,400,500,1000,3000,5000</t>
@@ -250,7 +250,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -737,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,34 +756,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,94 +792,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,13 +899,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1257,7 +1264,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
